--- a/biology/Zoologie/Chirindia_ewerbecki/Chirindia_ewerbecki.xlsx
+++ b/biology/Zoologie/Chirindia_ewerbecki/Chirindia_ewerbecki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chirindia ewerbecki est une espèce d'amphisbènes de la famille des Amphisbaenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chirindia ewerbecki est une espèce d'amphisbènes de la famille des Amphisbaenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Tanzanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Tanzanie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce de lézard est apode.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (25 octobre 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (25 octobre 2013) :
 Chirindia ewerbecki ewerbecki Werner, 1910
 Chirindia ewerbecki nanguruwensis (Loveridge, 1962)</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karl Ewerbeck[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karl Ewerbeck.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Werner, 1910 : Über neue oder seltene Reptilien des Naturhistorischen Museums in Hamburg. II. Eidechsen. Jahrbuch der hamburgischen Wissenschaftlichen Anstalten, vol. 27, beiheft no 2, p. 1-46 (texte intégral).
 Loveridge, 1962 : New worm-lizards (Ancylocranium and Amphisbaena) from southeastern Tanganyika territory. Breviora, no 163, p. 1-6 (texte intégral).</t>
